--- a/data/tabla 02-03.xlsx
+++ b/data/tabla 02-03.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitHub\OLN-PN\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>2011</t>
   </si>
@@ -59,18 +54,1235 @@
   <si>
     <t>Tamaño de empresa (según n. de trabajadores)</t>
   </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Unipersonal</t>
+  </si>
+  <si>
+    <t>Micro</t>
+  </si>
+  <si>
+    <t>Pequeña</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="57">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="356">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -297,7 +1509,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="120">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +1796,318 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="300">
     <border>
       <left/>
       <right/>
@@ -1041,178 +2563,3113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="13" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="20" borderId="19" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="20" fillId="21" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="22" borderId="21" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="23" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="23" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="24" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="24" fillId="25" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="24" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="24" fillId="25" borderId="24" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="26" borderId="25" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="26" fillId="27" borderId="26" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="28" borderId="27" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="29" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="28" fillId="29" borderId="28" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="30" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="30" borderId="29" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="31" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="31" fillId="32" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="30" fillId="31" borderId="30" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="31" fillId="32" borderId="31" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="32" fillId="33" borderId="32" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="34" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="33" fillId="34" borderId="33" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="34" fillId="35" borderId="34" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="35" fillId="36" borderId="35" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="37" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="36" fillId="37" borderId="36" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="38" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="38" fillId="39" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="38" borderId="37" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="38" fillId="39" borderId="38" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="40" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="39" fillId="40" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="41" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="40" fillId="41" borderId="40" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="42" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="42" borderId="41" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="43" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="42" fillId="43" borderId="42" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="44" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="44" borderId="43" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="45" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="45" fillId="46" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="44" fillId="45" borderId="44" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="164" fontId="45" fillId="46" borderId="45" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="47" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="46" fillId="47" borderId="46" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="48" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="47" fillId="48" borderId="47" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="49" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="49" borderId="48" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="50" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="49" fillId="50" borderId="49" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="51" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="50" fillId="51" borderId="50" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="52" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="51" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="53" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="53" borderId="52" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="54" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="54" borderId="53" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="55" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="55" borderId="54" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="56" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="56" borderId="55" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="57" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="57" borderId="56" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="57" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="58" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="59" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="60" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="61" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="62" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="63" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="64" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="65" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="66" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="67" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="68" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="69" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="70" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="71" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="72" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="73" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="74" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="75" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="76" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="77" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="78" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="80" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="81" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="82" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="83" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="85" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="86" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="87" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="88" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="89" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="90" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="91" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="92" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="93" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="94" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="95" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="96" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="98" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="99" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="101" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="102" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="104" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="105" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="106" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="107" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="108" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="109" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="110" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="111" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="112" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="113" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="114" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="115" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="116" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="117" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="118" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="119" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="120" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="122" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="123" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="124" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="125" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="126" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="127" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="128" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="129" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="130" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="131" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="132" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="133" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="172" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="173" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="174" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="175" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="176" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="177" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="178" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="179" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="197" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="199" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="201" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="203" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="205" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="207" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="211" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="213" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="215" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="217" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="219" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="221" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="223" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="225" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="227" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="229" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="231" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="233" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="235" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="237" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="239" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="241" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="243" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="245" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="247" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="249" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="251" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="253" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="255" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="257" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="259" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="261" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="263" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="265" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="267" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="269" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="271" fillId="0" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="273" fillId="0" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="275" fillId="0" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="277" fillId="0" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="279" fillId="0" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="281" fillId="0" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="283" fillId="0" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="285" fillId="0" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="287" fillId="0" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="289" fillId="0" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="291" fillId="0" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="293" fillId="0" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="58" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="59" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="60" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="61" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="62" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="63" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="64" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="301" fillId="65" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="302" fillId="66" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="303" fillId="67" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="304" fillId="68" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="305" fillId="69" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="306" fillId="70" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="307" fillId="71" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="308" fillId="72" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="309" fillId="73" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="310" fillId="74" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="311" fillId="75" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="312" fillId="76" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="313" fillId="77" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="314" fillId="78" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="315" fillId="79" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="316" fillId="80" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="317" fillId="81" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="318" fillId="82" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="319" fillId="83" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="320" fillId="84" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="321" fillId="85" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="322" fillId="86" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="323" fillId="87" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="324" fillId="88" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="325" fillId="89" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="326" fillId="90" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="327" fillId="91" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="328" fillId="92" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="329" fillId="93" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="330" fillId="94" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="331" fillId="95" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="332" fillId="96" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="333" fillId="97" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="334" fillId="98" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="335" fillId="99" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="336" fillId="100" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="337" fillId="101" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="338" fillId="102" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="339" fillId="103" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="340" fillId="104" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="341" fillId="105" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="342" fillId="106" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="343" fillId="107" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="344" fillId="108" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="345" fillId="109" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="346" fillId="110" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="347" fillId="111" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="348" fillId="112" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="349" fillId="113" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="114" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="115" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="116" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="117" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="118" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="119" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1512,208 +5969,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="56" t="s">
+    <row r="2">
+      <c r="A2" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="50">
-        <v>2010</v>
+      <c r="B2" s="294" t="s">
+        <v>13</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="297" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="299" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="245" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="246">
         <v>16.577274322509766</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="247">
         <v>16.737033843994141</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="248">
         <v>16.124221801757813</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="249">
         <v>16.556869506835938</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="250">
         <v>16.956869125366211</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="251">
         <v>17.064701080322266</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="252" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="253">
         <v>20.495466232299805</v>
       </c>
-      <c r="C4" s="10">
-        <v>20.090805053710938</v>
+      <c r="C4" s="254">
+        <v>20.090805053710937</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="255">
         <v>18.937915802001953</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="256">
         <v>18.616174697875977</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="257">
         <v>19.067066192626953</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="258">
         <v>18.760942459106445</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="15" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" s="259" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="260">
         <v>14.985740661621094</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="261">
         <v>15.649660110473633</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="262">
         <v>15.256085395812988</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="263">
         <v>14.493534088134766</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="264">
         <v>14.339180946350098</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="265">
         <v>14.144418716430664</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" s="266" t="s">
+        <v>17</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="267">
         <v>10.596654891967773</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="268">
         <v>11.706825256347656</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="269">
         <v>12.191006660461426</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="270">
         <v>12.418678283691406</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="271">
         <v>11.262046813964844</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="272">
         <v>11.353026390075684</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" s="273" t="s">
+        <v>18</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="274">
         <v>31.764759063720703</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="275">
         <v>30.145977020263672</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="276">
         <v>32.142848968505859</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="277">
         <v>32.938148498535156</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="278">
         <v>33.450603485107422</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="279">
         <v>33.875679016113281</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="36" t="s">
+    <row r="8">
+      <c r="A8" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="281">
         <v>5.5801048278808594</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="282">
         <v>5.6696996688842773</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="283">
         <v>5.3479204177856445</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="284">
         <v>4.9765963554382324</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="285">
         <v>4.9242305755615234</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="286">
         <v>4.8012290000915527</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="43" t="s">
-        <v>11</v>
+    <row r="9">
+      <c r="A9" s="287" t="s">
+        <v>19</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="288">
         <v>100</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="289">
         <v>100</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="290">
         <v>100</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="291">
         <v>100</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="292">
         <v>100</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="293">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G2"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="F2"/>
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="D2:D2"/>
+    <mergeCell ref="E2:E2"/>
+    <mergeCell ref="F2:F2"/>
+    <mergeCell ref="G2:G2"/>
+    <mergeCell ref="A2:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
